--- a/黄跃总结20171113.xlsx
+++ b/黄跃总结20171113.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>姓名</t>
   </si>
@@ -54,24 +54,15 @@
     <t>1、测试环境搭建</t>
   </si>
   <si>
-    <t>微信部分部署完成</t>
-  </si>
-  <si>
     <t>2、airkiss接入硬件</t>
   </si>
   <si>
-    <t>需要前端配合,前端没时间</t>
+    <t>因为暂时可以用厂家的二维码,所以这块排在睡眠图后面.</t>
   </si>
   <si>
     <t>3、接入硬件数据</t>
   </si>
   <si>
-    <t>数据接通,计算结果可以显示在网页上</t>
-  </si>
-  <si>
-    <t>对服务部署和代码进行修改和优化</t>
-  </si>
-  <si>
     <t>4、设备数据接入流程梳理</t>
   </si>
   <si>
@@ -81,7 +72,19 @@
     <t>5、和外包团队对接护士台</t>
   </si>
   <si>
-    <t>今天外包团队未进行对接</t>
+    <t>项目排期未定,外包团队暂停对接</t>
+  </si>
+  <si>
+    <t>6、解决线上环境dubbo基础服务异常</t>
+  </si>
+  <si>
+    <t>7、梳理护士站移动端</t>
+  </si>
+  <si>
+    <t>前后端一起解决移动端代码中的bug</t>
+  </si>
+  <si>
+    <t>11.15日完成移动端梳理,准备开始在移动端添加睡眠报告图.</t>
   </si>
 </sst>
 </file>
@@ -89,11 +92,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -135,24 +138,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -171,46 +167,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,22 +231,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -263,23 +260,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,37 +303,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,19 +447,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,109 +459,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,11 +583,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,17 +628,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,41 +665,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,156 +676,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -831,7 +834,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -840,7 +843,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -855,12 +858,12 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -879,7 +882,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1235,13 +1241,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="27" customHeight="1" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="27" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="32.625" style="2" customWidth="1"/>
@@ -1269,10 +1275,10 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="21" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1297,10 +1303,10 @@
       <c r="H2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="21"/>
+      <c r="I2" s="22"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
     </row>
     <row r="3" customHeight="1" spans="1:12">
       <c r="A3" s="9"/>
@@ -1310,105 +1316,149 @@
       <c r="C3" s="11">
         <v>1</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="D3" s="11">
+        <v>1</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="16"/>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
     </row>
     <row r="4" customHeight="1" spans="1:12">
       <c r="A4" s="9"/>
       <c r="B4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="13">
+        <v>12</v>
+      </c>
+      <c r="C4" s="12">
         <v>0.7</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="D4" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
       <c r="G4" s="18"/>
       <c r="H4" s="19"/>
       <c r="I4" s="17"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" customHeight="1" spans="1:12">
       <c r="A5" s="9"/>
       <c r="B5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="14">
+        <v>14</v>
+      </c>
+      <c r="C5" s="13">
         <v>1</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="D5" s="14">
+        <v>1</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
     </row>
     <row r="6" ht="42" customHeight="1" spans="1:12">
       <c r="A6" s="9"/>
-      <c r="B6" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="14">
+      <c r="B6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="13">
         <v>0.1</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="D6" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:12">
+    <row r="7" ht="42" customHeight="1" spans="1:12">
       <c r="A7" s="9"/>
-      <c r="B7" s="10" t="s">
-        <v>20</v>
+      <c r="B7" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="C7" s="14">
         <v>0.3</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10" t="s">
+      <c r="D7" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="15"/>
+    </row>
+    <row r="8" ht="42" customHeight="1" spans="1:12">
+      <c r="A8" s="9"/>
+      <c r="B8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14">
+        <v>1</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+    </row>
+    <row r="9" ht="42" customHeight="1" spans="1:12">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="10"/>
+      <c r="L9" s="10" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A3:A9"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
